--- a/output/results.xlsx
+++ b/output/results.xlsx
@@ -441,62 +441,62 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>number_states</t>
+          <t>Occurrence in Brazilian states</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>commercial cultivation</t>
+          <t>Commercially cultivated</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>availability of nutritional composition data</t>
+          <t>Availability of nutritional composition data</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>number of recipes (POF/IBGE)</t>
+          <t>Number of recipes in the Brazilian Household Budget Survey</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>number of recipes - other sources</t>
+          <t>Number of recipes from popular books and websites</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>labeler_from_food_science</t>
+          <t>Labeler from nutrition science</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>food category_algae</t>
+          <t>Food category - algae</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>food category_fish and seadfood</t>
+          <t>Food category - fish and seafood</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>food category_insect</t>
+          <t>Food category - insects</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>food category_mushrooms</t>
+          <t>Food category - mushrooms</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>food category_plant</t>
+          <t>Food category - plants</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>food category_wild animals</t>
+          <t>Food category - wild vertebrates</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
@@ -506,47 +506,47 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>conservation status_Data Deficient (DD)</t>
+          <t>Conservation status - data deficient</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>conservation status_Endangered (EN)</t>
+          <t>Conservation status - endangered</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>conservation status_Least Concern (LC)</t>
+          <t>Conservation status - least concern</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>conservation status_Near Threatened (NT)</t>
+          <t>Conservation status - near threatened</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>conservation status_Not Evaluated (NE)</t>
+          <t>Conservation status - not evaluated</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>conservation status_Vulnerable (VU)</t>
+          <t>Conservation status - vulnerable</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>origin_Exotic</t>
+          <t>Origin - exotic</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>origin_Native</t>
+          <t>Origin - native</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>origin_Naturally occurring</t>
+          <t>Origin - naturally occurring</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
